--- a/AfDD_2024_Annex_Table_Tab13.xlsx
+++ b/AfDD_2024_Annex_Table_Tab13.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D313C0-72A2-4166-BCEB-298CB8DC56F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{046852FB-D531-43BC-9475-7A04E63CE02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{D483884A-9451-446F-962F-755EC9B58B02}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6DDDFF38-7279-4650-84CF-597CD9934168}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
   <si>
     <t>Table 13: Basic health indicators</t>
   </si>
@@ -543,13 +543,10 @@
     <t>Source: World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, Global Hunger Index from Welthungerhilfe and Concern Worldwide (2023 edition).</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -565,32 +562,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -603,6 +588,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,6 +669,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -684,10 +684,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,13 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,24 +736,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -749,7 +749,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -757,20 +757,42 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -778,7 +800,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -788,7 +810,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -796,29 +818,36 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,247 +855,349 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1382,19 +1513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE19B11-2F66-4A4B-8BFF-EA102B5AB27F}">
-  <sheetPr codeName="Sheet16">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64427E5C-237C-4145-822B-0710CABAB813}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="98" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,3323 +1535,3324 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="17">
         <v>62.261200000000002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="18">
         <v>64.982100000000003</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="19">
         <v>59.584000000000003</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="17">
         <v>5.3711000000000002</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="18">
         <v>49.582000000000001</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="18">
         <v>71.373800000000003</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="20">
         <v>156.25219999999999</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="21">
         <v>25.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="23">
         <v>65.647099999999995</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="24">
         <v>68.051299999999998</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="24">
         <v>63.142499999999998</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="23">
         <v>2.8357000000000001</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="24">
         <v>34.172600000000003</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="24">
         <v>45.502000000000002</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="25">
         <v>110.45359999999999</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="26">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="28">
         <v>59.6922</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="29">
         <v>63.677599999999998</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="29">
         <v>56.0261</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="28">
         <v>2.8896000000000002</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="29">
         <v>35.830399999999997</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="29">
         <v>48.062600000000003</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="30">
         <v>169.7047</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="31">
         <v>17.3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="28">
         <v>54.693300000000001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="29">
         <v>57.537399999999998</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="29">
         <v>51.9621</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="28">
         <v>3.0486</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="29">
         <v>69.092399999999998</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="29">
         <v>89.195999999999998</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="30">
         <v>235.2569</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="31">
         <v>35.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="28">
         <v>63.716700000000003</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="29">
         <v>67.597099999999998</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="29">
         <v>60.014499999999998</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="28">
         <v>3.9946999999999999</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="29">
         <v>28.7</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="29">
         <v>39.539299999999997</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="30">
         <v>131.4545</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="31">
         <v>21.1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="28">
         <v>61.172199999999997</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="29">
         <v>64.159800000000004</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="29">
         <v>58.110599999999998</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="28">
         <v>4.7133000000000003</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="29">
         <v>53.393300000000004</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="29">
         <v>70.521000000000001</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="30">
         <v>152.81450000000001</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="31">
         <v>30.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="28">
         <v>62.829000000000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="29">
         <v>66.605500000000006</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="29">
         <v>59.057899999999997</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="28">
         <v>3.3491</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="29">
         <v>28.655000000000001</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="29">
         <v>39.751600000000003</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="30">
         <v>140.035</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="31">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="28">
         <v>65.252200000000002</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="29">
         <v>67.964200000000005</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="29">
         <v>62.178199999999997</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="28">
         <v>2.4007999999999998</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="29">
         <v>21.086099999999998</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="29">
         <v>28.455300000000001</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="30">
         <v>119.0341</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="31">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="23">
         <v>62.380299999999998</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="24">
         <v>65.0428</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="24">
         <v>59.643000000000001</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="23">
         <v>4.3788999999999998</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="24">
         <v>42.607300000000002</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="24">
         <v>61.051900000000003</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="25">
         <v>144.8278</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="31">
         <v>28.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="33">
         <v>61.124200000000002</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="34">
         <v>63.861600000000003</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="34">
         <v>58.129399999999997</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="33">
         <v>3.5451000000000001</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="34">
         <v>36.809699999999999</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="34">
         <v>52.2575</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="35">
         <v>161.9906</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="36">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="39">
         <v>61.876840000000001</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="40">
         <v>64.947940000000003</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="41">
         <v>58.784829999999999</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="39">
         <v>3.6526900000000002</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="40">
         <v>39.99288</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="40">
         <v>54.571100000000001</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="42">
         <v>152.18239</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="43">
         <v>23.77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="45">
         <v>61.566299999999998</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="46">
         <v>63.674999999999997</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="29">
         <v>59.465000000000003</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="45">
         <v>5.1765999999999996</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="46">
         <v>38.647799999999997</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="46">
         <v>54.485199999999999</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="47">
         <v>173.3253</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="28">
         <v>60.832799999999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="29">
         <v>62.633000000000003</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="29">
         <v>59.080500000000001</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="28">
         <v>4.5431999999999997</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="29">
         <v>49.924300000000002</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="29">
         <v>72.228800000000007</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="30">
         <v>166.5076</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="31">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="28">
         <v>54.604199999999999</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="29">
         <v>56.756700000000002</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="29">
         <v>52.581699999999998</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="28">
         <v>5.9855</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="29">
         <v>72.420299999999997</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="29">
         <v>102.9859</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="30">
         <v>243.6326</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="31">
         <v>42.3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="50">
         <v>52.7774</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="19">
         <v>54.396099999999997</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="19">
         <v>51.218000000000004</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="50">
         <v>6.3464</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="19">
         <v>70.164400000000001</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="19">
         <v>110.03919999999999</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="51">
         <v>287.63749999999999</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="52">
         <v>34.6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="50">
         <v>63.785200000000003</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="19">
         <v>65.396900000000002</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="19">
         <v>62.2119</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="50">
         <v>4.234</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="19">
         <v>32.591000000000001</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="19">
         <v>44.285400000000003</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="51">
         <v>123.76519999999999</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="52">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="23">
         <v>59.739199999999997</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="24">
         <v>61.700099999999999</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="24">
         <v>57.818100000000001</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="23">
         <v>6.2057000000000002</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="24">
         <v>53.852699999999999</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="24">
         <v>81.282600000000002</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="25">
         <v>198.77099999999999</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="31">
         <v>35.700000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="50">
         <v>60.708300000000001</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="19">
         <v>62.943199999999997</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="19">
         <v>58.811500000000002</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="50">
         <v>4.3463000000000003</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="19">
         <v>58.508099999999999</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="19">
         <v>78.260199999999998</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="51">
         <v>163.09020000000001</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="50">
         <v>66.530500000000004</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="19">
         <v>69.116299999999995</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="19">
         <v>64.257999999999996</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="50">
         <v>3.5476000000000001</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="19">
         <v>30.138500000000001</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="19">
         <v>40.642699999999998</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="51">
         <v>103.96769999999999</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="52">
         <v>18.7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="33">
         <v>67.784800000000004</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="34">
         <v>70.877700000000004</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="34">
         <v>65.1601</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="33">
         <v>3.8925000000000001</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="34">
         <v>12.620699999999999</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="34">
         <v>15.217700000000001</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="35">
         <v>79.0749</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="39">
         <v>60.925411111111103</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="40">
         <v>63.055</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="41">
         <v>58.9560888888889</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="39">
         <v>4.9197555555555601</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="40">
         <v>46.540866666666702</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="40">
         <v>66.603077777777798</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="42">
         <v>171.08577777777799</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="43">
         <v>29.65</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="45">
         <v>64.166499999999999</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="46">
         <v>66.592799999999997</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="29">
         <v>61.975200000000001</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="45">
         <v>4.0522</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="46">
         <v>46.893099999999997</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="46">
         <v>60.340699999999998</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="47">
         <v>123.6884</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="48">
         <v>22.7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="28">
         <v>62.694299999999998</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="29">
         <v>65.461100000000002</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="29">
         <v>60.071100000000001</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="28">
         <v>2.8483999999999998</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="29">
         <v>39.584099999999999</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="29">
         <v>56.13</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="30">
         <v>160.96899999999999</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="31">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="28">
         <v>67.133399999999995</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="29">
         <v>69.337199999999996</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="29">
         <v>64.862300000000005</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="28">
         <v>3.9333999999999998</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="29">
         <v>29.6936</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="29">
         <v>39.223999999999997</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="30">
         <v>120.3875</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="28">
         <v>65.370500000000007</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="29">
         <v>68.426299999999998</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="29">
         <v>62.517299999999999</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="28">
         <v>4.2428999999999997</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="29">
         <v>35.4178</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="29">
         <v>48.888599999999997</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="30">
         <v>136.06870000000001</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="31">
         <v>26.2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="28">
         <v>62.6755</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="29">
         <v>65.062100000000001</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="29">
         <v>60.372300000000003</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="28">
         <v>3.3969</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="29">
         <v>30.443899999999999</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="29">
         <v>41.938499999999998</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="30">
         <v>151.94139999999999</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="31">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="28">
         <v>65.182000000000002</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="29">
         <v>67.612099999999998</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="29">
         <v>62.891300000000001</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="28">
         <v>3.9182999999999999</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="29">
         <v>36.336599999999997</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="29">
         <v>50.293399999999998</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="30">
         <v>135.5342</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="31">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="28">
         <v>74.330600000000004</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="29">
         <v>77.736400000000003</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="29">
         <v>71.077600000000004</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="28">
         <v>1.4139999999999999</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="29">
         <v>13.9861</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="29">
         <v>16.500900000000001</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="30">
         <v>52.363900000000001</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="31">
         <v>13.6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="28">
         <v>66.774100000000004</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="29">
         <v>68.996300000000005</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="29">
         <v>64.358199999999997</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="28">
         <v>3.8733</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="29">
         <v>30.105699999999999</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="29">
         <v>40.2346</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="30">
         <v>103.9585</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="31">
         <v>25.4</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="28">
         <v>73.532399999999996</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="29">
         <v>78.049800000000005</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="29">
         <v>69.6524</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="28">
         <v>2.3765999999999998</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="29">
         <v>11.8668</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="29">
         <v>13.9504</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="30">
         <v>57.592500000000001</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="28">
         <v>55.9666</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="29">
         <v>58.050699999999999</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="29">
         <v>53.967199999999998</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="28">
         <v>6.4172000000000002</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="29">
         <v>72.945999999999998</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="29">
         <v>114.9999</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="30">
         <v>241.12629999999999</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="50">
         <v>55.4801</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="19">
         <v>56.997500000000002</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="19">
         <v>53.906100000000002</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="50">
         <v>4.5433000000000003</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="19">
         <v>63.7988</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="19">
         <v>99.0899</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="51">
         <v>257.22210000000001</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="28">
         <v>65.613600000000005</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="29">
         <v>68.207700000000003</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="29">
         <v>63.105699999999999</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="28">
         <v>4.5419</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="29">
         <v>39.910800000000002</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="29">
         <v>56.643099999999997</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="30">
         <v>134.7311</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="31">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="28">
         <v>66.407700000000006</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="29">
         <v>68.541700000000006</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="29">
         <v>64.372500000000002</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="28">
         <v>4.7948000000000004</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="29">
         <v>35.306600000000003</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="29">
         <v>47.604500000000002</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="30">
         <v>105.4293</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="31">
         <v>23.2</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="33">
         <v>62.851300000000002</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="34">
         <v>64.8977</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="34">
         <v>60.714599999999997</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="33">
         <v>4.6929999999999996</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="34">
         <v>31.613700000000001</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="34">
         <v>43.099600000000002</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="35">
         <v>129.38730000000001</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="36">
         <v>25.2</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="39">
         <v>64.869900000000001</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="40">
         <v>67.426385714285701</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="41">
         <v>62.417414285714301</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="39">
         <v>3.93187142857143</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="40">
         <v>36.993114285714299</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="40">
         <v>52.0670071428572</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="42">
         <v>136.457157142857</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="43">
         <v>24.93</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="17">
         <v>74.452799999999996</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="18">
         <v>75.912499999999994</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="19">
         <v>73.082099999999997</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="17">
         <v>2.9419</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="18">
         <v>19.175000000000001</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="18">
         <v>22.689599999999999</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="20">
         <v>45.564999999999998</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="21">
         <v>6.8</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="28">
         <v>70.990499999999997</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="29">
         <v>73.389700000000005</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="29">
         <v>68.667000000000002</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="28">
         <v>2.9601999999999999</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="29">
         <v>16.447099999999999</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="29">
         <v>19.490500000000001</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="30">
         <v>37.070300000000003</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="31">
         <v>12.8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="50">
         <v>72.472200000000001</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="19">
         <v>75.348399999999998</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="19">
         <v>69.866600000000005</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="50">
         <v>2.5070999999999999</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="19">
         <v>9.9169999999999998</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="19">
         <v>12.2217</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="51">
         <v>49.431800000000003</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="54">
         <v>16.100000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="50">
         <v>64.5321</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="19">
         <v>66.334999999999994</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="19">
         <v>62.780700000000003</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="50">
         <v>4.4553000000000003</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="19">
         <v>46.5154</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="19">
         <v>62.947299999999998</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="51">
         <v>117.34050000000001</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="54">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="28">
         <v>73.919899999999998</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="29">
         <v>76.308400000000006</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="29">
         <v>71.757499999999993</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="28">
         <v>2.3530000000000002</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="29">
         <v>15.988899999999999</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="29">
         <v>18.607700000000001</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="30">
         <v>38.441499999999998</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="31">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="33">
         <v>75.292299999999997</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="34">
         <v>79.279499999999999</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="34">
         <v>71.836699999999993</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="33">
         <v>2.1145</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="34">
         <v>14.089399999999999</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="34">
         <v>16.637899999999998</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="35">
         <v>42.418799999999997</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="36">
         <v>5.9</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="39">
         <v>71.943299999999994</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="40">
         <v>74.428916666666694</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="55">
         <v>69.665099999999995</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="39">
         <v>2.88866666666667</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="40">
         <v>20.3554666666667</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="40">
         <v>25.432449999999999</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="42">
         <v>55.044649999999997</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="43">
         <v>11.9333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="45">
         <v>60.088000000000001</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="46">
         <v>61.4848</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="29">
         <v>58.692700000000002</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="45">
         <v>5.0479000000000003</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="46">
         <v>56.478999999999999</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="46">
         <v>86.026899999999998</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="47">
         <v>197.26669999999999</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="48">
         <v>22.6</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="28">
         <v>59.730600000000003</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="29">
         <v>61.598100000000002</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="29">
         <v>57.787300000000002</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="28">
         <v>4.8693</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="29">
         <v>50.842799999999997</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="29">
         <v>85.639399999999995</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="30">
         <v>187.75129999999999</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="31">
         <v>25.5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="50">
         <v>74.807699999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="19">
         <v>79.160399999999996</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="19">
         <v>70.333399999999997</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="50">
         <v>1.9078999999999999</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="19">
         <v>11.997199999999999</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="19">
         <v>14.174799999999999</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="51">
         <v>40.546399999999998</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="54">
         <v>12.4</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="28">
         <v>59.031799999999997</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="29">
         <v>60.350700000000003</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="29">
         <v>57.859900000000003</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="28">
         <v>4.4718</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="29">
         <v>58.229799999999997</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="29">
         <v>77.732299999999995</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="30">
         <v>185.4769</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="31">
         <v>20.6</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="28">
         <v>62.612499999999997</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="29">
         <v>64.234800000000007</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="29">
         <v>61.0229</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="28">
         <v>4.7765000000000004</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="29">
         <v>31.427</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="29">
         <v>49.457000000000001</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="30">
         <v>159.58969999999999</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="31">
         <v>19.7</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="23">
         <v>64.114000000000004</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="24">
         <v>66.385199999999998</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="24">
         <v>61.899500000000003</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="23">
         <v>3.6232000000000002</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="24">
         <v>33.045999999999999</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="24">
         <v>44.7316</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="25">
         <v>149.3895</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="26">
         <v>13.7</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="28">
         <v>59.327300000000001</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="29">
         <v>60.448700000000002</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="29">
         <v>58.113100000000003</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="28">
         <v>4.4889000000000001</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="29">
         <v>65.954700000000003</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="29">
         <v>95.694100000000006</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="30">
         <v>206.3777</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="31">
         <v>27.1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="28">
         <v>59.998800000000003</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="29">
         <v>62.264699999999998</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="29">
         <v>57.612299999999998</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="28">
         <v>4.0941000000000001</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="29">
         <v>52.528100000000002</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="29">
         <v>76.748000000000005</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="30">
         <v>173.6147</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="31">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="28">
         <v>60.947600000000001</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="29">
         <v>62.354500000000002</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="29">
         <v>59.528300000000002</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="28">
         <v>4.1736000000000004</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="29">
         <v>59.595799999999997</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="29">
         <v>78.057100000000005</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="30">
         <v>161.4948</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="31">
         <v>32.200000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="28">
         <v>58.633099999999999</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="29">
         <v>59.939900000000002</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="29">
         <v>57.384900000000002</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="28">
         <v>6.0347</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="29">
         <v>57.103400000000001</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="29">
         <v>91.553799999999995</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="30">
         <v>197.5812</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="31">
         <v>25.6</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="28">
         <v>61.450600000000001</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="29">
         <v>62.453899999999997</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="29">
         <v>60.4724</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="28">
         <v>6.8924000000000003</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="29">
         <v>43.2761</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="29">
         <v>77.834900000000005</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="30">
         <v>159.9796</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="31">
         <v>35.1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="28">
         <v>52.887</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="29">
         <v>53.322600000000001</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="29">
         <v>52.455599999999997</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="28">
         <v>5.3094999999999999</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="29">
         <v>74.657799999999995</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="29">
         <v>114.1703</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="30">
         <v>288.99880000000002</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="31">
         <v>28.3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="28">
         <v>68.006399999999999</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="29">
         <v>70.271100000000004</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="29">
         <v>65.5869</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="28">
         <v>4.4542000000000002</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="29">
         <v>25.164999999999999</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="29">
         <v>38.093200000000003</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="30">
         <v>90.395399999999995</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="31">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="28">
         <v>59.763199999999998</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="29">
         <v>61.116399999999999</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="29">
         <v>58.404499999999999</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="28">
         <v>4.0804999999999998</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="29">
         <v>74.290300000000002</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="29">
         <v>103.25530000000001</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="30">
         <v>179.19110000000001</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="31">
         <v>31.3</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="57">
         <v>61.034999999999997</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="58">
         <v>61.576000000000001</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="58">
         <v>60.485500000000002</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="57">
         <v>4.3227000000000002</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="58">
         <v>45.489600000000003</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="58">
         <v>64.392499999999998</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="59">
         <v>179.28059999999999</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="60">
         <v>21.1</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="39">
         <v>61.495573333333297</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="40">
         <v>63.130786666666701</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="55">
         <v>59.842613333333396</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="39">
         <v>4.5698133333333297</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="40">
         <v>49.338839999999998</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="40">
         <v>73.170746666666702</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="42">
         <v>170.46229333333301</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="43">
         <v>24.213333333333299</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="63">
         <v>63.506835185185203</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="64">
         <v>65.823687037037104</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="64">
         <v>61.257901851851798</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="63">
         <v>4.1061129629629596</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="64">
         <v>40.7206592592593</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="64">
         <v>57.856161111111099</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I62" s="65">
         <v>145.54071111111099</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="66">
         <v>23.397872340425501</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="68">
         <v>74.925694964028807</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="69">
         <v>77.871004316546802</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="64">
         <v>72.118006474820106</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="68">
         <v>2.0268669064748202</v>
       </c>
-      <c r="G63" s="39">
+      <c r="G63" s="69">
         <v>11.800353956834501</v>
       </c>
-      <c r="H63" s="39">
+      <c r="H63" s="69">
         <v>14.2933892086331</v>
       </c>
-      <c r="I63" s="40">
+      <c r="I63" s="70">
         <v>44.064851079136702</v>
       </c>
-      <c r="J63" s="40">
+      <c r="J63" s="71">
         <v>10.701282051282</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="74">
         <v>73.289578787878796</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="75">
         <v>76.594451515151505</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="69">
         <v>70.155960606060603</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="74">
         <v>1.94672727272727</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="75">
         <v>13.695703030302999</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="75">
         <v>16.5928939393939</v>
       </c>
-      <c r="I64" s="36">
+      <c r="I64" s="76">
         <v>55.284139393939398</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="77">
         <v>10.326086956521699</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="78">
         <v>71.588413333333406</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="79">
         <v>74.312826666666695</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="79">
         <v>68.986873333333406</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="78">
         <v>2.49372333333333</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="79">
         <v>21.535256666666701</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="79">
         <v>26.226013333333299</v>
       </c>
-      <c r="I65" s="45">
+      <c r="I65" s="80">
         <v>63.7111533333333</v>
       </c>
-      <c r="J65" s="45">
+      <c r="J65" s="71">
         <v>16.8807692307692</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="82">
         <v>71.7307808290156</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="83">
         <v>74.500252331606305</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="83">
         <v>69.079427979274598</v>
       </c>
-      <c r="F66" s="47">
+      <c r="F66" s="82">
         <v>2.6086248704663202</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="83">
         <v>19.892045595854899</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="83">
         <v>26.481936787564798</v>
       </c>
-      <c r="I66" s="49">
+      <c r="I66" s="84">
         <v>72.457060621761698</v>
       </c>
-      <c r="J66" s="49">
+      <c r="J66" s="85">
         <v>15.475199999999999</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="78">
         <v>65.393557142857205</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="79">
         <v>68.190571428571502</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="79">
         <v>62.715790476190499</v>
       </c>
-      <c r="F67" s="51">
+      <c r="F67" s="78">
         <v>3.78478571428571</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="79">
         <v>33.128552380952399</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="79">
         <v>46.060614285714301</v>
       </c>
-      <c r="I67" s="53">
+      <c r="I67" s="80">
         <v>126.5116</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="71">
         <v>23.029411764705898</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="78">
         <v>62.673651999999997</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="79">
         <v>64.596407999999997</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="79">
         <v>60.818688000000002</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="78">
         <v>4.4392319999999996</v>
       </c>
-      <c r="G68" s="44">
+      <c r="G68" s="79">
         <v>45.722388000000002</v>
       </c>
-      <c r="H68" s="44">
+      <c r="H68" s="79">
         <v>67.023887999999999</v>
       </c>
-      <c r="I68" s="45">
+      <c r="I68" s="80">
         <v>158.07074</v>
       </c>
-      <c r="J68" s="45">
+      <c r="J68" s="71">
         <v>23.173913043478301</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="78">
         <v>62.213457142857102</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="79">
         <v>64.267200000000003</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="79">
         <v>60.1438285714286</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="78">
         <v>4.6690857142857203</v>
       </c>
-      <c r="G69" s="44">
+      <c r="G69" s="79">
         <v>40.538457142857197</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="79">
         <v>58.247842857142899</v>
       </c>
-      <c r="I69" s="45">
+      <c r="I69" s="80">
         <v>160.00498571428599</v>
       </c>
-      <c r="J69" s="45">
+      <c r="J69" s="71">
         <v>26.3</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="78">
         <v>61.578545454545498</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="79">
         <v>63.770309090909102</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="79">
         <v>59.504272727272699</v>
       </c>
-      <c r="F70" s="43">
+      <c r="F70" s="78">
         <v>4.8656545454545501</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="79">
         <v>45.323227272727301</v>
       </c>
-      <c r="H70" s="44">
+      <c r="H70" s="79">
         <v>64.639645454545501</v>
       </c>
-      <c r="I70" s="45">
+      <c r="I70" s="80">
         <v>163.63479090909101</v>
       </c>
-      <c r="J70" s="45">
+      <c r="J70" s="71">
         <v>28.65</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="78">
         <v>61.495573333333297</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="79">
         <v>63.130786666666701</v>
       </c>
-      <c r="E71" s="44">
+      <c r="E71" s="79">
         <v>59.842613333333396</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="78">
         <v>4.5698133333333297</v>
       </c>
-      <c r="G71" s="44">
+      <c r="G71" s="79">
         <v>49.338839999999998</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="79">
         <v>73.170746666666702</v>
       </c>
-      <c r="I71" s="45">
+      <c r="I71" s="80">
         <v>170.46229333333301</v>
       </c>
-      <c r="J71" s="45">
+      <c r="J71" s="71">
         <v>24.213333333333299</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="78">
         <v>61.521700000000003</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="79">
         <v>63.871871428571403</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="79">
         <v>59.236328571428601</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="78">
         <v>4.3833714285714303</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="79">
         <v>44.816442857142903</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="79">
         <v>65.827085714285701</v>
       </c>
-      <c r="I72" s="45">
+      <c r="I72" s="80">
         <v>173.06370000000001</v>
       </c>
-      <c r="J72" s="45">
+      <c r="J72" s="71">
         <v>24.68</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="78">
         <v>63.882925</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="79">
         <v>66.857018749999995</v>
       </c>
-      <c r="E73" s="44">
+      <c r="E73" s="79">
         <v>60.9772125</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="78">
         <v>3.7055312499999999</v>
       </c>
-      <c r="G73" s="44">
+      <c r="G73" s="79">
         <v>37.385668750000001</v>
       </c>
-      <c r="H73" s="44">
+      <c r="H73" s="79">
         <v>50.980218749999999</v>
       </c>
-      <c r="I73" s="45">
+      <c r="I73" s="80">
         <v>137.2002</v>
       </c>
-      <c r="J73" s="45">
+      <c r="J73" s="71">
         <v>24.926666666666701</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="78">
         <v>72.133859999999999</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="79">
         <v>74.636759999999995</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="79">
         <v>69.864720000000005</v>
       </c>
-      <c r="F74" s="43">
+      <c r="F74" s="78">
         <v>2.8743599999999998</v>
       </c>
-      <c r="G74" s="44">
+      <c r="G74" s="79">
         <v>21.137139999999999</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="79">
         <v>26.620840000000001</v>
       </c>
-      <c r="I74" s="45">
+      <c r="I74" s="80">
         <v>58.639519999999997</v>
       </c>
-      <c r="J74" s="45">
+      <c r="J74" s="71">
         <v>11.76</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="68">
         <v>65.204939999999993</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="69">
         <v>68.288939999999997</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="83">
         <v>62.160080000000001</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="68">
         <v>3.9957799999999999</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="69">
         <v>36.024259999999998</v>
       </c>
-      <c r="H75" s="48">
+      <c r="H75" s="69">
         <v>49.607059999999997</v>
       </c>
-      <c r="I75" s="49">
+      <c r="I75" s="70">
         <v>120.46053999999999</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J75" s="71">
         <v>25.45</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="87">
         <v>73.488209999999995</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="88">
         <v>76.269990000000007</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="79">
         <v>70.789730000000006</v>
       </c>
-      <c r="F76" s="51">
+      <c r="F76" s="87">
         <v>1.99732</v>
       </c>
-      <c r="G76" s="52">
+      <c r="G76" s="88">
         <v>17.51389</v>
       </c>
-      <c r="H76" s="52">
+      <c r="H76" s="88">
         <v>21.45964</v>
       </c>
-      <c r="I76" s="53">
+      <c r="I76" s="89">
         <v>57.905270000000002</v>
       </c>
-      <c r="J76" s="53">
+      <c r="J76" s="90">
         <v>14.25</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="78">
         <v>73.173866666666697</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="79">
         <v>76.627399999999994</v>
       </c>
-      <c r="E77" s="44">
+      <c r="E77" s="79">
         <v>69.901941666666701</v>
       </c>
-      <c r="F77" s="43">
+      <c r="F77" s="78">
         <v>2.06206666666667</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="79">
         <v>13.580341666666699</v>
       </c>
-      <c r="H77" s="44">
+      <c r="H77" s="79">
         <v>16.332274999999999</v>
       </c>
-      <c r="I77" s="45">
+      <c r="I77" s="80">
         <v>57.309791666666698</v>
       </c>
-      <c r="J77" s="45">
+      <c r="J77" s="71">
         <v>8.7833333333333403</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="78">
         <v>79.739037037037093</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="79">
         <v>82.634348148148206</v>
       </c>
-      <c r="E78" s="44">
+      <c r="E78" s="79">
         <v>76.829548148148206</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="78">
         <v>1.5217000000000001</v>
       </c>
-      <c r="G78" s="44">
+      <c r="G78" s="79">
         <v>3.1672962962962998</v>
       </c>
-      <c r="H78" s="44">
+      <c r="H78" s="79">
         <v>3.8026370370370399</v>
       </c>
-      <c r="I78" s="45">
+      <c r="I78" s="80">
         <v>17.098170370370401</v>
       </c>
-      <c r="J78" s="45">
+      <c r="J78" s="71">
         <v>2.8624999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="82">
         <v>80.186723684210605</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="83">
         <v>82.874594736842099</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="83">
         <v>77.483786842105303</v>
       </c>
-      <c r="F79" s="47">
+      <c r="F79" s="82">
         <v>1.59046052631579</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="83">
         <v>3.7402894736842098</v>
       </c>
-      <c r="H79" s="48">
+      <c r="H79" s="83">
         <v>4.4328657894736896</v>
       </c>
-      <c r="I79" s="49">
+      <c r="I79" s="84">
         <v>20.142715789473701</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J79" s="85">
         <v>3.56</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="78">
         <v>64.780749999999998</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="79">
         <v>67.058840000000004</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="79">
         <v>62.605229999999999</v>
       </c>
-      <c r="F80" s="51">
+      <c r="F80" s="78">
         <v>4.0200899999999997</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G80" s="79">
         <v>39.23874</v>
       </c>
-      <c r="H80" s="52">
+      <c r="H80" s="79">
         <v>55.57246</v>
       </c>
-      <c r="I80" s="53">
+      <c r="I80" s="80">
         <v>134.48186000000001</v>
       </c>
-      <c r="J80" s="53">
+      <c r="J80" s="71">
         <v>20.4375</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="78">
         <v>72.382322727272793</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="79">
         <v>75.414468181818194</v>
       </c>
-      <c r="E81" s="44">
+      <c r="E81" s="79">
         <v>69.661740909090895</v>
       </c>
-      <c r="F81" s="43">
+      <c r="F81" s="78">
         <v>2.4087363636363599</v>
       </c>
-      <c r="G81" s="44">
+      <c r="G81" s="79">
         <v>15.655604545454599</v>
       </c>
-      <c r="H81" s="44">
+      <c r="H81" s="79">
         <v>18.842654545454501</v>
       </c>
-      <c r="I81" s="45">
+      <c r="I81" s="80">
         <v>54.213868181818199</v>
       </c>
-      <c r="J81" s="45">
+      <c r="J81" s="71">
         <v>12.2789473684211</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="43">
+      <c r="C82" s="78">
         <v>63.217309090909097</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="79">
         <v>65.542970454545497</v>
       </c>
-      <c r="E82" s="44">
+      <c r="E82" s="79">
         <v>60.9516909090909</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="78">
         <v>4.1256636363636403</v>
       </c>
-      <c r="G82" s="44">
+      <c r="G82" s="79">
         <v>41.057459090909099</v>
       </c>
-      <c r="H82" s="44">
+      <c r="H82" s="79">
         <v>58.375184090909102</v>
       </c>
-      <c r="I82" s="45">
+      <c r="I82" s="80">
         <v>148.054086363636</v>
       </c>
-      <c r="J82" s="45">
+      <c r="J82" s="71">
         <v>24.005128205128202</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="68">
         <v>75.4039358974359</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="69">
         <v>78.332917094017105</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="83">
         <v>72.579868376068404</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="68">
         <v>1.9550623931623901</v>
       </c>
-      <c r="G83" s="48">
+      <c r="G83" s="69">
         <v>11.075435042735</v>
       </c>
-      <c r="H83" s="48">
+      <c r="H83" s="69">
         <v>13.4379717948718</v>
       </c>
-      <c r="I83" s="49">
+      <c r="I83" s="70">
         <v>42.156488888888902</v>
       </c>
-      <c r="J83" s="49">
+      <c r="J83" s="71">
         <v>10.1932203389831</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="87">
         <v>61.005409090909097</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="88">
         <v>63.015845454545499</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="79">
         <v>59.010395454545503</v>
       </c>
-      <c r="F84" s="51">
+      <c r="F84" s="87">
         <v>4.90133181818182</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="88">
         <v>48.707027272727302</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="88">
         <v>71.739286363636396</v>
       </c>
-      <c r="I84" s="53">
+      <c r="I84" s="89">
         <v>174.75155000000001</v>
       </c>
-      <c r="J84" s="53">
+      <c r="J84" s="90">
         <v>29.5833333333333</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="78">
         <v>68.159800000000004</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="79">
         <v>71.149349999999998</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="79">
         <v>65.295775000000006</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="78">
         <v>3.3131499999999998</v>
       </c>
-      <c r="G85" s="44">
+      <c r="G85" s="79">
         <v>30.782125000000001</v>
       </c>
-      <c r="H85" s="44">
+      <c r="H85" s="79">
         <v>39.552250000000001</v>
       </c>
-      <c r="I85" s="45">
+      <c r="I85" s="80">
         <v>101.2955</v>
       </c>
-      <c r="J85" s="45">
+      <c r="J85" s="92">
         <v>31.1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="43">
+      <c r="C86" s="78">
         <v>64.414491666666706</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="79">
         <v>66.763141666666698</v>
       </c>
-      <c r="E86" s="44">
+      <c r="E86" s="79">
         <v>62.152220833333402</v>
       </c>
-      <c r="F86" s="43">
+      <c r="F86" s="78">
         <v>3.7968166666666701</v>
       </c>
-      <c r="G86" s="44">
+      <c r="G86" s="79">
         <v>38.292949999999998</v>
       </c>
-      <c r="H86" s="44">
+      <c r="H86" s="79">
         <v>52.945149999999998</v>
       </c>
-      <c r="I86" s="45">
+      <c r="I86" s="80">
         <v>134.1123125</v>
       </c>
-      <c r="J86" s="45">
+      <c r="J86" s="71">
         <v>20.343478260869599</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="43">
+      <c r="C87" s="78">
         <v>70.5524566666667</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="79">
         <v>73.314793333333299</v>
       </c>
-      <c r="E87" s="44">
+      <c r="E87" s="79">
         <v>67.938553333333402</v>
       </c>
-      <c r="F87" s="43">
+      <c r="F87" s="78">
         <v>2.6538499999999998</v>
       </c>
-      <c r="G87" s="44">
+      <c r="G87" s="79">
         <v>22.465896666666701</v>
       </c>
-      <c r="H87" s="44">
+      <c r="H87" s="79">
         <v>27.425253333333298</v>
       </c>
-      <c r="I87" s="45">
+      <c r="I87" s="80">
         <v>67.273619999999994</v>
       </c>
-      <c r="J87" s="45">
+      <c r="J87" s="71">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="43">
+      <c r="C88" s="78">
         <v>66.824271428571507</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="79">
         <v>69.680757142857203</v>
       </c>
-      <c r="E88" s="44">
+      <c r="E88" s="79">
         <v>64.056042857142899</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F88" s="78">
         <v>2.9143714285714299</v>
       </c>
-      <c r="G88" s="44">
+      <c r="G88" s="79">
         <v>28.066199999999998</v>
       </c>
-      <c r="H88" s="44">
+      <c r="H88" s="79">
         <v>37.3334857142857</v>
       </c>
-      <c r="I88" s="45">
+      <c r="I88" s="80">
         <v>105.48232857142899</v>
       </c>
-      <c r="J88" s="45">
+      <c r="J88" s="71">
         <v>16.55</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="43">
+      <c r="C89" s="78">
         <v>72.811859999999996</v>
       </c>
-      <c r="D89" s="44">
+      <c r="D89" s="79">
         <v>76.194059999999993</v>
       </c>
-      <c r="E89" s="44">
+      <c r="E89" s="79">
         <v>69.621413333333393</v>
       </c>
-      <c r="F89" s="43">
+      <c r="F89" s="78">
         <v>1.9759822222222201</v>
       </c>
-      <c r="G89" s="44">
+      <c r="G89" s="79">
         <v>11.8387777777778</v>
       </c>
-      <c r="H89" s="44">
+      <c r="H89" s="79">
         <v>14.075622222222201</v>
       </c>
-      <c r="I89" s="45">
+      <c r="I89" s="80">
         <v>49.383117777777798</v>
       </c>
-      <c r="J89" s="45">
+      <c r="J89" s="71">
         <v>7.1970588235294102</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="82">
         <v>79.189374999999998</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="83">
         <v>81.892188333333394</v>
       </c>
-      <c r="E90" s="48">
+      <c r="E90" s="83">
         <v>76.583551666666693</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="82">
         <v>1.6682266666666701</v>
       </c>
-      <c r="G90" s="48">
+      <c r="G90" s="83">
         <v>5.1087833333333403</v>
       </c>
-      <c r="H90" s="48">
+      <c r="H90" s="83">
         <v>6.1289383333333403</v>
       </c>
-      <c r="I90" s="49">
+      <c r="I90" s="84">
         <v>24.041633333333301</v>
       </c>
-      <c r="J90" s="49">
+      <c r="J90" s="85">
         <v>4.4437499999999996</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="78">
         <v>61.650330303030302</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="79">
         <v>63.755266666666699</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="79">
         <v>59.580912121212201</v>
       </c>
-      <c r="F91" s="51">
+      <c r="F91" s="78">
         <v>4.6867303030303002</v>
       </c>
-      <c r="G91" s="52">
+      <c r="G91" s="79">
         <v>47.3137848484849</v>
       </c>
-      <c r="H91" s="52">
+      <c r="H91" s="79">
         <v>68.543648484848504</v>
       </c>
-      <c r="I91" s="53">
+      <c r="I91" s="80">
         <v>165.49736060606099</v>
       </c>
-      <c r="J91" s="53">
+      <c r="J91" s="71">
         <v>27.75</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="43">
+      <c r="C92" s="78">
         <v>67.376858333333303</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D92" s="79">
         <v>69.9040416666667</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="79">
         <v>65.009600000000006</v>
       </c>
-      <c r="F92" s="43">
+      <c r="F92" s="78">
         <v>3.0387416666666698</v>
       </c>
-      <c r="G92" s="44">
+      <c r="G92" s="79">
         <v>32.181883333333303</v>
       </c>
-      <c r="H92" s="44">
+      <c r="H92" s="79">
         <v>40.329466666666697</v>
       </c>
-      <c r="I92" s="45">
+      <c r="I92" s="80">
         <v>98.762866666666696</v>
       </c>
-      <c r="J92" s="45">
+      <c r="J92" s="71">
         <v>23.24</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="43">
+      <c r="C93" s="78">
         <v>69.103466666666705</v>
       </c>
-      <c r="D93" s="44">
+      <c r="D93" s="79">
         <v>72.446966666666697</v>
       </c>
-      <c r="E93" s="44">
+      <c r="E93" s="79">
         <v>65.968500000000006</v>
       </c>
-      <c r="F93" s="43">
+      <c r="F93" s="78">
         <v>2.9562166666666698</v>
       </c>
-      <c r="G93" s="44">
+      <c r="G93" s="79">
         <v>24.981999999999999</v>
       </c>
-      <c r="H93" s="44">
+      <c r="H93" s="79">
         <v>32.822083333333303</v>
       </c>
-      <c r="I93" s="45">
+      <c r="I93" s="80">
         <v>87.813466666666699</v>
       </c>
-      <c r="J93" s="45">
+      <c r="J93" s="71">
         <v>20.425000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="78">
         <v>71.436635483871001</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="79">
         <v>74.354425806451701</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="79">
         <v>68.771432258064493</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="78">
         <v>2.3970709677419402</v>
       </c>
-      <c r="G94" s="44">
+      <c r="G94" s="79">
         <v>17.1926548387097</v>
       </c>
-      <c r="H94" s="44">
+      <c r="H94" s="79">
         <v>20.926122580645199</v>
       </c>
-      <c r="I94" s="45">
+      <c r="I94" s="80">
         <v>66.019241935483905</v>
       </c>
-      <c r="J94" s="45">
+      <c r="J94" s="71">
         <v>16.43</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="43">
+      <c r="C95" s="78">
         <v>60.405749999999998</v>
       </c>
-      <c r="D95" s="44">
+      <c r="D95" s="79">
         <v>62.744081250000001</v>
       </c>
-      <c r="E95" s="44">
+      <c r="E95" s="79">
         <v>58.082693749999997</v>
       </c>
-      <c r="F95" s="43">
+      <c r="F95" s="78">
         <v>4.5843749999999996</v>
       </c>
-      <c r="G95" s="44">
+      <c r="G95" s="79">
         <v>46.287700000000001</v>
       </c>
-      <c r="H95" s="44">
+      <c r="H95" s="79">
         <v>68.091274999999996</v>
       </c>
-      <c r="I95" s="45">
+      <c r="I95" s="80">
         <v>176.8895125</v>
       </c>
-      <c r="J95" s="45">
+      <c r="J95" s="71">
         <v>27.871428571428599</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="47">
+      <c r="C96" s="68">
         <v>69.547681249999997</v>
       </c>
-      <c r="D96" s="48">
+      <c r="D96" s="69">
         <v>72.811987500000001</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="83">
         <v>66.405531249999996</v>
       </c>
-      <c r="F96" s="47">
+      <c r="F96" s="68">
         <v>2.5161562499999999</v>
       </c>
-      <c r="G96" s="48">
+      <c r="G96" s="69">
         <v>20.610906249999999</v>
       </c>
-      <c r="H96" s="48">
+      <c r="H96" s="69">
         <v>24.9127875</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96" s="70">
         <v>63.184806250000001</v>
       </c>
-      <c r="J96" s="49">
+      <c r="J96" s="71">
         <v>10.033333333333299</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="87">
         <v>61.5719214285714</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="88">
         <v>63.618450000000003</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="79">
         <v>59.568453571428599</v>
       </c>
-      <c r="F97" s="51">
+      <c r="F97" s="87">
         <v>4.3557357142857098</v>
       </c>
-      <c r="G97" s="52">
+      <c r="G97" s="88">
         <v>47.112214285714302</v>
       </c>
-      <c r="H97" s="52">
+      <c r="H97" s="88">
         <v>67.454196428571507</v>
       </c>
-      <c r="I97" s="53">
+      <c r="I97" s="89">
         <v>163.34814285714299</v>
       </c>
-      <c r="J97" s="53">
+      <c r="J97" s="90">
         <v>25.957142857142902</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="82">
         <v>69.959031249999995</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="83">
         <v>72.6873875</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="83">
         <v>67.407187500000006</v>
       </c>
-      <c r="F98" s="47">
+      <c r="F98" s="82">
         <v>2.6333625000000001</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="83">
         <v>25.366475000000001</v>
       </c>
-      <c r="H98" s="48">
+      <c r="H98" s="83">
         <v>30.750556249999999</v>
       </c>
-      <c r="I98" s="49">
+      <c r="I98" s="84">
         <v>76.702743749999996</v>
       </c>
-      <c r="J98" s="49">
+      <c r="J98" s="85">
         <v>18.350000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
+      <c r="A99" s="93"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="95"/>
+      <c r="G99" s="95"/>
+      <c r="H99" s="95"/>
+      <c r="I99" s="95"/>
+      <c r="J99" s="95"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="96"/>
+      <c r="G100" s="96"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="96"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="57"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="96"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="57"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="96"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
+      <c r="J103" s="96"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="96"/>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+      <c r="J104" s="96"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="96"/>
+      <c r="H105" s="96"/>
+      <c r="I105" s="96"/>
+      <c r="J105" s="96"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="96"/>
+      <c r="H106" s="96"/>
+      <c r="I106" s="96"/>
+      <c r="J106" s="96"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="96"/>
+      <c r="H107" s="96"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="96"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="96"/>
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="96"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="57"/>
-      <c r="J109" s="57"/>
+        <v>170</v>
+      </c>
+      <c r="C109" s="96"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="96"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="96"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="96"/>
+      <c r="H110" s="96"/>
+      <c r="I110" s="96"/>
+      <c r="J110" s="96"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="57"/>
-      <c r="J110" s="57"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="96"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="57"/>
-      <c r="J112" s="57"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="96"/>
+      <c r="H112" s="96"/>
+      <c r="I112" s="96"/>
+      <c r="J112" s="96"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="57"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="96"/>
+      <c r="G113" s="96"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
+      <c r="J113" s="96"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="96"/>
+      <c r="J114" s="96"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2BFC9E3F-CB77-48CC-973A-301DEEAB0ECA}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{890EA5CF-77AC-438B-BE00-698E9228BE34}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{6AC30BC5-17A1-4975-BC7B-891CAF650232}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{CD303A1E-092E-4660-880D-CA4903DC891F}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{E7425CAE-2D35-42DF-B696-D308E4E66A09}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{A3282696-2374-4F1C-9A83-A2CA33EB56AD}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4F1FE01A-D90D-4676-B668-6DEB20456403}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{06A1351E-2F5B-47D1-BAB8-194445CD13E3}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CB821C4F-BD10-4169-B944-D25963AF5C15}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{E7CEBBEF-68C8-4B74-B960-D937950E4008}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{46CBB887-5457-4DBE-A546-4D4666617357}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{0D19B9E5-117A-408F-899B-E58F99510CFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab13.xlsx
+++ b/AfDD_2024_Annex_Table_Tab13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{046852FB-D531-43BC-9475-7A04E63CE02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C8EAD0-9822-4BEB-87AB-CE36F0E9793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6DDDFF38-7279-4650-84CF-597CD9934168}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7046E07B-AFCD-4887-B492-7F1258D2F10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -1513,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64427E5C-237C-4145-822B-0710CABAB813}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA7B9B-283D-4E43-A8C7-75352BA69816}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4842,12 +4842,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4F1FE01A-D90D-4676-B668-6DEB20456403}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{06A1351E-2F5B-47D1-BAB8-194445CD13E3}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CB821C4F-BD10-4169-B944-D25963AF5C15}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{E7CEBBEF-68C8-4B74-B960-D937950E4008}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{46CBB887-5457-4DBE-A546-4D4666617357}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{0D19B9E5-117A-408F-899B-E58F99510CFF}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E1CD95E2-453D-4B8F-8BD6-5E8D7BCE2F4E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{14122FCA-B32D-4FE5-8917-727CD6504B60}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0470B696-9A10-4CF3-8CB6-8AD4BCAAA87D}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{CEFC16D1-F5CD-4CBD-A49C-5C7B8778B0BD}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{4969C9BF-AD8D-4CAE-BC1E-E7E48696B2B6}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3A7B0D40-B15C-42A6-9EDE-1FFB070B3B9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab13.xlsx
+++ b/AfDD_2024_Annex_Table_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C8EAD0-9822-4BEB-87AB-CE36F0E9793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87EA5A3-C5A7-47AE-B29E-B4623B7070ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7046E07B-AFCD-4887-B492-7F1258D2F10F}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E36FD3AF-74CA-4292-BCB9-1FFB811452E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -1196,8 +1196,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1513,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA7B9B-283D-4E43-A8C7-75352BA69816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40F8DFC-41E9-437B-9F9A-098461E8BCD4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1525,7 +1525,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4793,7 +4793,7 @@
       <c r="J110" s="96"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="99" t="s">
+      <c r="B111" s="98" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="96"/>
@@ -4806,7 +4806,7 @@
       <c r="J111" s="96"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="98" t="s">
         <v>169</v>
       </c>
       <c r="C112" s="96"/>
@@ -4842,12 +4842,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E1CD95E2-453D-4B8F-8BD6-5E8D7BCE2F4E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{14122FCA-B32D-4FE5-8917-727CD6504B60}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0470B696-9A10-4CF3-8CB6-8AD4BCAAA87D}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{CEFC16D1-F5CD-4CBD-A49C-5C7B8778B0BD}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{4969C9BF-AD8D-4CAE-BC1E-E7E48696B2B6}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3A7B0D40-B15C-42A6-9EDE-1FFB070B3B9B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D42342DC-91E1-4B03-AEDF-7B412B15ED7C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8399385A-E118-4345-AE0A-C4CFBF07D5D4}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{72900405-B840-4947-9A51-D4BBBE90D53D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{D23C746A-DBC4-4654-BF3E-E858BDEF8085}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{DE2F20FF-4145-49D5-A88A-175F4E5BF74D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{628ECAC0-9DD4-43D5-B6C7-A0C83F2427FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab13.xlsx
+++ b/AfDD_2024_Annex_Table_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87EA5A3-C5A7-47AE-B29E-B4623B7070ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D14D842-E1FB-449C-8584-24298C165C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E36FD3AF-74CA-4292-BCB9-1FFB811452E0}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0F72D344-82C1-4E13-BE98-DE4CF85CD5C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -1513,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40F8DFC-41E9-437B-9F9A-098461E8BCD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1CE319-AF95-4405-9475-CEDC885DCC3A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4842,12 +4842,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D42342DC-91E1-4B03-AEDF-7B412B15ED7C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8399385A-E118-4345-AE0A-C4CFBF07D5D4}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{72900405-B840-4947-9A51-D4BBBE90D53D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{D23C746A-DBC4-4654-BF3E-E858BDEF8085}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{DE2F20FF-4145-49D5-A88A-175F4E5BF74D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{628ECAC0-9DD4-43D5-B6C7-A0C83F2427FD}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C8BA82EB-90BF-49DE-B505-C336D1293887}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{85F9B533-BF8C-4B12-AF01-EDA50662FD94}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{480BA548-55AF-4112-A1F1-554EE1524F6E}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{4255727C-1954-4C5A-9C1E-F75BFDD93D32}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{DD6C298B-C0BB-45F9-B260-2F756305F688}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E176753B-2027-4F68-863B-1023181B9036}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
